--- a/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,59</t>
+          <t>0,73; 3,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,31</t>
+          <t>1,41; 4,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,38</t>
+          <t>1,34; 3,35</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 16,25</t>
+          <t>8,78; 16,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,87</t>
+          <t>7,35; 11,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,93</t>
+          <t>8,69; 12,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,9</t>
+          <t>5,51; 11,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,34</t>
+          <t>4,82; 9,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,62</t>
+          <t>5,7; 9,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 14,54</t>
+          <t>5,77; 14,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,75</t>
+          <t>4,41; 10,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,36</t>
+          <t>5,68; 10,98</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,64</t>
+          <t>0,38; 2,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,38</t>
+          <t>2,14; 7,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,76</t>
+          <t>1,68; 4,84</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,04; 15,09</t>
+          <t>7,96; 14,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,0</t>
+          <t>5,81; 11,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,03</t>
+          <t>7,79; 12,26</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,1</t>
+          <t>3,32; 6,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 49,53</t>
+          <t>9,88; 50,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 35,32</t>
+          <t>7,53; 35,54</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,52</t>
+          <t>13,05; 19,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,96; 21,59</t>
+          <t>16,04; 21,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,6; 19,58</t>
+          <t>15,36; 19,8</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 10,91</t>
+          <t>8,62; 10,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,4</t>
+          <t>9,95; 23,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,31</t>
+          <t>9,71; 16,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,83</t>
+          <t>0,65; 3,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,16</t>
+          <t>1,42; 4,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,35</t>
+          <t>1,35; 3,38</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,38</t>
+          <t>8,85; 16,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,79</t>
+          <t>7,26; 11,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,93</t>
+          <t>8,45; 12,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,77</t>
+          <t>5,51; 11,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,71</t>
+          <t>4,7; 9,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,48</t>
+          <t>5,74; 9,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 14,63</t>
+          <t>5,93; 14,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,02</t>
+          <t>4,42; 9,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,98</t>
+          <t>5,49; 10,36</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,7</t>
+          <t>0,32; 2,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,82</t>
+          <t>2,15; 7,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,84</t>
+          <t>1,64; 4,76</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 14,99</t>
+          <t>8,04; 15,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,27</t>
+          <t>5,89; 11,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,26</t>
+          <t>7,6; 12,03</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,73</t>
+          <t>3,3; 7,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 50,85</t>
+          <t>10,0; 49,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 35,54</t>
+          <t>7,4; 35,32</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,44</t>
+          <t>12,86; 19,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,04; 21,61</t>
+          <t>15,96; 21,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,36; 19,8</t>
+          <t>15,6; 19,58</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,62; 10,9</t>
+          <t>8,64; 10,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,95; 23,47</t>
+          <t>9,88; 21,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,99</t>
+          <t>9,79; 17,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,59</t>
+          <t>0,61; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,31</t>
+          <t>1,38; 4,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,38</t>
+          <t>1,3; 3,34</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 16,25</t>
+          <t>9,18; 17,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,87</t>
+          <t>7,31; 11,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,93</t>
+          <t>8,65; 13,51</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,55%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,9</t>
+          <t>5,48; 12,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,34</t>
+          <t>4,75; 9,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,62</t>
+          <t>5,75; 9,7</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 14,54</t>
+          <t>5,61; 13,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,75</t>
+          <t>2,97; 8,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,36</t>
+          <t>4,51; 9,36</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,64</t>
+          <t>0,36; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,38</t>
+          <t>1,69; 6,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,76</t>
+          <t>1,49; 4,42</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,04; 15,09</t>
+          <t>8,08; 15,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,0</t>
+          <t>5,91; 10,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,03</t>
+          <t>7,63; 12,09</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,1</t>
+          <t>3,24; 6,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 49,53</t>
+          <t>9,87; 64,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 35,32</t>
+          <t>7,2; 49,08</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>15,44%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,52</t>
+          <t>5,98; 18,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,96; 21,59</t>
+          <t>15,97; 21,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,6; 19,58</t>
+          <t>9,31; 18,86</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,64; 10,91</t>
+          <t>6,96; 10,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,4</t>
+          <t>9,2; 29,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,31</t>
+          <t>8,92; 22,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,6</t>
+          <t>0,73; 4,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,24</t>
+          <t>1,39; 4,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,34</t>
+          <t>1,18; 3,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,44</t>
+          <t>8,96; 17,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,92</t>
+          <t>7,13; 11,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,51</t>
+          <t>8,95; 13,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,05</t>
+          <t>5,69; 12,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,38</t>
+          <t>4,85; 9,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,7</t>
+          <t>5,83; 9,73</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 13,6</t>
+          <t>5,54; 14,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,29</t>
+          <t>2,96; 8,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,36</t>
+          <t>4,49; 9,32</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,68</t>
+          <t>0,35; 2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,49</t>
+          <t>1,56; 6,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,42</t>
+          <t>1,45; 4,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,08; 15,13</t>
+          <t>8,15; 14,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,94</t>
+          <t>5,93; 11,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,09</t>
+          <t>7,58; 12,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,97</t>
+          <t>3,3; 6,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 64,39</t>
+          <t>9,97; 64,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 49,08</t>
+          <t>7,33; 52,17</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,98; 18,83</t>
+          <t>5,65; 18,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,97; 21,3</t>
+          <t>15,82; 21,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,86</t>
+          <t>9,5; 18,83</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,96; 10,24</t>
+          <t>6,92; 10,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,2; 29,44</t>
+          <t>9,31; 32,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,92; 22,48</t>
+          <t>8,86; 21,95</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7289</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2262; 12847</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4027; 12921</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7120; 19221</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>65224</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48236</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>113460</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46472; 89742</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36641; 61161</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>92406; 141500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26188</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23979</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50167</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17931; 39431</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16935; 33293</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38748; 64631</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27174</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25730</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52904</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17327; 43779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14061; 40190</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>35359; 73432</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9381</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11403</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>625; 5116</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4030; 16456</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6326; 19330</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30060</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21175</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>51236</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>21968; 39846</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>15239; 29174</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>39914; 63699</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>29995</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>272588</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>302583</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20587; 42427</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>84582; 551494</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>107902; 768341</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>121197</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>133030</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>254227</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>52429; 171588</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>113575; 153325</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>156468; 310038</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>306958</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>541409</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>848367</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>239361; 350675</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>345188; 1214652</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>634823; 1573330</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>